--- a/Misc/Pricing.xlsx
+++ b/Misc/Pricing.xlsx
@@ -1,26 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TomWhyte-Venables\Documents\GitHub\Rapid-Training-Target\Misc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563196B5-5C4D-4EC9-8BEC-3205A7887E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty </t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PCB1</t>
+  </si>
+  <si>
+    <t>ESP32-C3</t>
+  </si>
+  <si>
+    <t>USB-C</t>
+  </si>
+  <si>
+    <t>LTR Leds</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>MIC5504</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>SGM6603</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>PCB2</t>
+  </si>
+  <si>
+    <t>3d Print</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR2032 </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,13 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +423,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>(17.15+11.21)/5</f>
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*C2</f>
+        <v>5.6719999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="0">B3*C3</f>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.159</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55359999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <f>B12*C12</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>15/5</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*C13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D16" si="1">B14*C14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(D2:D18)</f>
+        <v>19.964700000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>